--- a/2025/Training Content.xlsx
+++ b/2025/Training Content.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbantwal\Git Repositories\Personal\GxTraining\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gxportal-my.sharepoint.com/personal/mbantwal_galaxe_com/Documents/Documents/Trainings/Training Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823DB04-658F-4CBC-BF5A-C58F12C871AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{9823DB04-658F-4CBC-BF5A-C58F12C871AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C1F7D41-2C69-451A-9FEA-AEF5872CF954}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{55D5119D-4DF1-4C86-92E5-3BF6CE92DE04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{55D5119D-4DF1-4C86-92E5-3BF6CE92DE04}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML+CSS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="171">
   <si>
     <t>#</t>
   </si>
@@ -60,76 +60,391 @@
     <t>HTML</t>
   </si>
   <si>
+    <t>Mayur/Lavanya</t>
+  </si>
+  <si>
+    <t>HTML introduction</t>
+  </si>
+  <si>
+    <t>Mayur</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>VS code installation</t>
+  </si>
+  <si>
+    <t>Language essentials</t>
+  </si>
+  <si>
+    <t>HTML elements</t>
+  </si>
+  <si>
+    <t>Structure of HTML and DOM</t>
+  </si>
+  <si>
+    <t>Lavanya</t>
+  </si>
+  <si>
+    <t>HTML tags-with end and without end</t>
+  </si>
+  <si>
+    <t>Elements for layout-head, title, body, html</t>
+  </si>
+  <si>
+    <t>Container Elements-div, p</t>
+  </si>
+  <si>
+    <t>Span</t>
+  </si>
+  <si>
+    <t>Horizontal Rulers</t>
+  </si>
+  <si>
+    <t>Links and images</t>
+  </si>
+  <si>
+    <t>Lists and tables</t>
+  </si>
+  <si>
+    <t>Formatting page contents-headings, para, breaks</t>
+  </si>
+  <si>
+    <t>Fav icon and Page Tittle</t>
+  </si>
+  <si>
+    <t>Block and Inline</t>
+  </si>
+  <si>
+    <t>Class and Id</t>
+  </si>
+  <si>
+    <t>Usage of Frames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to include stylesheet and JavaScript file </t>
+  </si>
+  <si>
+    <t>File path</t>
+  </si>
+  <si>
+    <t>Layouts</t>
+  </si>
+  <si>
+    <t>During CSS</t>
+  </si>
+  <si>
+    <t>Responsive Web Design Basic</t>
+  </si>
+  <si>
+    <t>Devices and Resolution</t>
+  </si>
+  <si>
+    <t>Media Queries</t>
+  </si>
+  <si>
+    <t>Localization and Globalization</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>SKIPED</t>
+  </si>
+  <si>
+    <t>Languages and customization</t>
+  </si>
+  <si>
+    <t>Techniques and practices</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Basic HTML Media Types</t>
+  </si>
+  <si>
+    <t>Basic HTML Apis</t>
+  </si>
+  <si>
+    <t>Usage of Viewport</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>What is CSS and Syntax</t>
+  </si>
+  <si>
+    <t>✔️</t>
+  </si>
+  <si>
+    <t>Inline Styles And Basic CSS</t>
+  </si>
+  <si>
+    <t>CSS Selectors</t>
+  </si>
+  <si>
+    <t>Ways to add CSS</t>
+  </si>
+  <si>
+    <t>Color Code and how to take color code</t>
+  </si>
+  <si>
+    <t>Backgrounds</t>
+  </si>
+  <si>
+    <t>Border</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padding </t>
+  </si>
+  <si>
+    <t> Height/Width</t>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text </t>
+  </si>
+  <si>
+    <t> fonts and How to use the external font</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>links and Buttons</t>
+  </si>
+  <si>
+    <t>CSS Grid</t>
+  </si>
+  <si>
+    <t>List Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t>Display Properties</t>
+  </si>
+  <si>
+    <t>max-width/height and Min-width/height</t>
+  </si>
+  <si>
+    <t>Position CSS</t>
+  </si>
+  <si>
+    <t>z-index</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Transform Properties Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Align </t>
+  </si>
+  <si>
+    <t>CSS Combinators</t>
+  </si>
+  <si>
+    <t>Pseudo-classes and Pseudo-elements</t>
+  </si>
+  <si>
+    <t>Opacity / Transparency</t>
+  </si>
+  <si>
+    <t>Make a CSS navigation Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS Colors and Gradient </t>
+  </si>
+  <si>
+    <t>Scroll  CSS</t>
+  </si>
+  <si>
+    <t>CSS object-fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box Sizing </t>
+  </si>
+  <si>
+    <t>CSS Flex Box</t>
+  </si>
+  <si>
+    <t>CSS Units</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>CSS functions</t>
+  </si>
+  <si>
+    <t>Approx 5 days</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
     <t>Mayur/Lavanya/Chandu</t>
   </si>
   <si>
-    <t>Lavanya And Chandu Will Split Up</t>
-  </si>
-  <si>
-    <t>HTML introduction</t>
-  </si>
-  <si>
-    <t>Mayur</t>
-  </si>
-  <si>
-    <t>VS code installation</t>
-  </si>
-  <si>
-    <t>Language essentials</t>
-  </si>
-  <si>
-    <t>HTML elements</t>
-  </si>
-  <si>
-    <t>Structure of HTML and DOM</t>
-  </si>
-  <si>
     <t>Chandu</t>
   </si>
   <si>
-    <t>HTML tags-with end and without end</t>
-  </si>
-  <si>
-    <t>Elements for layout-head, title, body, html</t>
-  </si>
-  <si>
-    <t>Container Elements-div, p</t>
-  </si>
-  <si>
-    <t>Span</t>
-  </si>
-  <si>
-    <t>Horizontal Rulers</t>
-  </si>
-  <si>
-    <t>Links and images</t>
-  </si>
-  <si>
-    <t>Lists and tables</t>
-  </si>
-  <si>
-    <t>Formatting page contents-headings, para, breaks</t>
-  </si>
-  <si>
-    <t>Fav icon and Page Tittle</t>
-  </si>
-  <si>
-    <t>Block and Inline</t>
-  </si>
-  <si>
-    <t>Class and Id</t>
-  </si>
-  <si>
-    <t>Usage of Frames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to include stylesheet and JavaScript file </t>
-  </si>
-  <si>
-    <t>File path</t>
-  </si>
-  <si>
-    <t>Layouts</t>
+    <t>Yes - Needs Modifications</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>JavaScript Variables</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>Conditionals</t>
+  </si>
+  <si>
+    <t>Loops</t>
+  </si>
+  <si>
+    <t>Built-in Types</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Regular Expressions</t>
+  </si>
+  <si>
+    <t>Functions in JS</t>
+  </si>
+  <si>
+    <t>Creating a Function</t>
+  </si>
+  <si>
+    <t>Function Expressions</t>
+  </si>
+  <si>
+    <t>Function Hoisting</t>
+  </si>
+  <si>
+    <t>Immediate Function</t>
+  </si>
+  <si>
+    <t>Invoking function with call, apply</t>
+  </si>
+  <si>
+    <t>Event Handling</t>
+  </si>
+  <si>
+    <t>DOM nodes</t>
+  </si>
+  <si>
+    <t>DOM events</t>
+  </si>
+  <si>
+    <t>Event Objects</t>
+  </si>
+  <si>
+    <t>Browser default actions</t>
+  </si>
+  <si>
+    <t>Event Listeners</t>
+  </si>
+  <si>
+    <t>Mouse events</t>
+  </si>
+  <si>
+    <t>Keyboard events</t>
+  </si>
+  <si>
+    <t>Form events</t>
+  </si>
+  <si>
+    <t>Touch events</t>
+  </si>
+  <si>
+    <t>Custom events</t>
+  </si>
+  <si>
+    <t>Timers</t>
+  </si>
+  <si>
+    <t>Debouncing</t>
+  </si>
+  <si>
+    <t>Programming with objects</t>
+  </si>
+  <si>
+    <t>Creating objects</t>
+  </si>
+  <si>
+    <t>Object properties</t>
+  </si>
+  <si>
+    <t>Creating object constructors</t>
+  </si>
+  <si>
+    <t>"this" keyword</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Chaining methods</t>
+  </si>
+  <si>
+    <t>Function objects</t>
+  </si>
+  <si>
+    <t>Asynchronous programming</t>
+  </si>
+  <si>
+    <t>Callback</t>
+  </si>
+  <si>
+    <t>Promises</t>
+  </si>
+  <si>
+    <t>Async/Await</t>
+  </si>
+  <si>
+    <t>Failures</t>
+  </si>
+  <si>
+    <t>Event loops</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>What is JSON</t>
+  </si>
+  <si>
+    <t>JSON.parse(), JSON.stringify()</t>
+  </si>
+  <si>
+    <t>Using JSON with AJAX</t>
   </si>
   <si>
     <t>Storage Techniques</t>
@@ -138,315 +453,12 @@
     <t>Session Storage</t>
   </si>
   <si>
-    <t>Lavanya</t>
-  </si>
-  <si>
     <t>Local Storage</t>
   </si>
   <si>
     <t>Cookies and Caching</t>
   </si>
   <si>
-    <t>Responsive Web Design Basic</t>
-  </si>
-  <si>
-    <t>Devices and Resolution</t>
-  </si>
-  <si>
-    <t>Media Queries</t>
-  </si>
-  <si>
-    <t>Localization and Globalization</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>Languages and customization</t>
-  </si>
-  <si>
-    <t>Techniques and practices</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>Basic HTML Media Types</t>
-  </si>
-  <si>
-    <t>Basic HTML Apis</t>
-  </si>
-  <si>
-    <t>Usage of Viewport</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>Mayur/Lavanya</t>
-  </si>
-  <si>
-    <t>Mayur's Gonna Prepare</t>
-  </si>
-  <si>
-    <t>What is CSS and Syntax</t>
-  </si>
-  <si>
-    <t>Inline Styles And Basic CSS</t>
-  </si>
-  <si>
-    <t>CSS Selectors</t>
-  </si>
-  <si>
-    <t>Ways to add CSS</t>
-  </si>
-  <si>
-    <t>Color Code and how to take color code</t>
-  </si>
-  <si>
-    <t>Backgrounds</t>
-  </si>
-  <si>
-    <t>Border</t>
-  </si>
-  <si>
-    <t>Margin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padding </t>
-  </si>
-  <si>
-    <t> Height/Width</t>
-  </si>
-  <si>
-    <t>Outline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text </t>
-  </si>
-  <si>
-    <t> fonts and How to use the external font</t>
-  </si>
-  <si>
-    <t>icons</t>
-  </si>
-  <si>
-    <t>links and Buttons</t>
-  </si>
-  <si>
-    <t>CSS Grid</t>
-  </si>
-  <si>
-    <t>List Properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table </t>
-  </si>
-  <si>
-    <t> Display Properties</t>
-  </si>
-  <si>
-    <t>max-width/height and Min-width/height</t>
-  </si>
-  <si>
-    <t>Position CSS</t>
-  </si>
-  <si>
-    <t>z-index</t>
-  </si>
-  <si>
-    <t>Overflow</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>Transform Properties Basic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Align </t>
-  </si>
-  <si>
-    <t>CSS Combinators</t>
-  </si>
-  <si>
-    <t>Pseudo-classes and Pseudo-elements</t>
-  </si>
-  <si>
-    <t>Opacity / Transparency</t>
-  </si>
-  <si>
-    <t>Make a CSS navigation Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSS Colors and Gradient </t>
-  </si>
-  <si>
-    <t>Scroll  CSS</t>
-  </si>
-  <si>
-    <t>CSS object-fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box Sizing </t>
-  </si>
-  <si>
-    <t>CSS Flex Box</t>
-  </si>
-  <si>
-    <t>CSS Units</t>
-  </si>
-  <si>
-    <t>Animation</t>
-  </si>
-  <si>
-    <t>CSS functions</t>
-  </si>
-  <si>
-    <t>Approx 5 days</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>JavaScript Variables</t>
-  </si>
-  <si>
-    <t>Operators</t>
-  </si>
-  <si>
-    <t>Conditionals</t>
-  </si>
-  <si>
-    <t>Loops</t>
-  </si>
-  <si>
-    <t>Built-in Types</t>
-  </si>
-  <si>
-    <t>Arrays</t>
-  </si>
-  <si>
-    <t>Regular Expressions</t>
-  </si>
-  <si>
-    <t>Functions in JS</t>
-  </si>
-  <si>
-    <t>Creating a Function</t>
-  </si>
-  <si>
-    <t>Function Expressions</t>
-  </si>
-  <si>
-    <t>Function Hoisting</t>
-  </si>
-  <si>
-    <t>Immediate Function</t>
-  </si>
-  <si>
-    <t>Invoking function with call, apply</t>
-  </si>
-  <si>
-    <t>Event Handling</t>
-  </si>
-  <si>
-    <t>DOM nodes</t>
-  </si>
-  <si>
-    <t>DOM events</t>
-  </si>
-  <si>
-    <t>Event Objects</t>
-  </si>
-  <si>
-    <t>Browser default actions</t>
-  </si>
-  <si>
-    <t>Event Listeners</t>
-  </si>
-  <si>
-    <t>Mouse events</t>
-  </si>
-  <si>
-    <t>Keyboard events</t>
-  </si>
-  <si>
-    <t>Form events</t>
-  </si>
-  <si>
-    <t>Touch events</t>
-  </si>
-  <si>
-    <t>Custom events</t>
-  </si>
-  <si>
-    <t>Timers</t>
-  </si>
-  <si>
-    <t>Debouncing</t>
-  </si>
-  <si>
-    <t>Programming with objects</t>
-  </si>
-  <si>
-    <t>Creating objects</t>
-  </si>
-  <si>
-    <t>Object properties</t>
-  </si>
-  <si>
-    <t>Creating object constructors</t>
-  </si>
-  <si>
-    <t>"this" keyword</t>
-  </si>
-  <si>
-    <t>Modules</t>
-  </si>
-  <si>
-    <t>Chaining methods</t>
-  </si>
-  <si>
-    <t>Function objects</t>
-  </si>
-  <si>
-    <t>Asynchronous programming</t>
-  </si>
-  <si>
-    <t>Callback</t>
-  </si>
-  <si>
-    <t>Promises</t>
-  </si>
-  <si>
-    <t>Async/Await</t>
-  </si>
-  <si>
-    <t>Failures</t>
-  </si>
-  <si>
-    <t>Event loops</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>What is JSON</t>
-  </si>
-  <si>
-    <t>JSON.parse(), JSON.stringify()</t>
-  </si>
-  <si>
-    <t>Using JSON with AJAX</t>
-  </si>
-  <si>
     <t>ECMA Script</t>
   </si>
   <si>
@@ -483,10 +495,61 @@
     <t>reduce Function</t>
   </si>
   <si>
-    <t>Chandu/Lavanya</t>
-  </si>
-  <si>
-    <t>Yes - Needs Modifications</t>
+    <t>CSS Tutorials</t>
+  </si>
+  <si>
+    <t>Ways to apply CSS</t>
+  </si>
+  <si>
+    <t>Color Code</t>
+  </si>
+  <si>
+    <t>Borders</t>
+  </si>
+  <si>
+    <t>Margins &amp; Paddings</t>
+  </si>
+  <si>
+    <t>Height &amp; Width</t>
+  </si>
+  <si>
+    <t>Text Formattings</t>
+  </si>
+  <si>
+    <t>Fonts</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Links &amp; Buttons</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Z-Index</t>
+  </si>
+  <si>
+    <t>Transform Properties</t>
+  </si>
+  <si>
+    <t>CSS Navigation Bar</t>
+  </si>
+  <si>
+    <t>Gradients</t>
+  </si>
+  <si>
+    <t>Scroll Bars</t>
+  </si>
+  <si>
+    <t>Object Fit</t>
+  </si>
+  <si>
+    <t>Box Sizing</t>
+  </si>
+  <si>
+    <t>CSS Flexbox</t>
   </si>
 </sst>
 </file>
@@ -586,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -748,11 +811,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -907,11 +979,76 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1782,29 +1919,43 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EB64700-01B0-441F-B8C9-CD1DB601F210}" name="Table2" displayName="Table2" ref="A1:F73" headerRowCount="0" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EB64700-01B0-441F-B8C9-CD1DB601F210}" name="Table2" displayName="Table2" ref="A1:F73" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B76A219D-5F4C-4EC0-A623-30FB66C0442C}" name="Column1" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{2FF47FB3-B0A4-43E2-BF89-2C84130C08F9}" name="Column2" headerRowDxfId="25" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{C463600D-ECCF-495B-A2A9-E6F7042AF29B}" name="Column3" headerRowDxfId="23" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{290B5966-D44B-4DB0-B50E-7D32BABE221E}" name="Column4" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{388C3131-CA94-45F7-8B0F-6D95810EB023}" name="Column5" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{3E5549EB-645A-47D3-92BC-3F6DCB8C21B9}" name="Column6" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{B76A219D-5F4C-4EC0-A623-30FB66C0442C}" name="Column1" headerRowDxfId="32" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{2FF47FB3-B0A4-43E2-BF89-2C84130C08F9}" name="Column2" headerRowDxfId="30" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{C463600D-ECCF-495B-A2A9-E6F7042AF29B}" name="Column3" headerRowDxfId="28" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{290B5966-D44B-4DB0-B50E-7D32BABE221E}" name="Column4" headerRowDxfId="26" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{388C3131-CA94-45F7-8B0F-6D95810EB023}" name="Column5" headerRowDxfId="24" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{3E5549EB-645A-47D3-92BC-3F6DCB8C21B9}" name="Column6" headerRowDxfId="22" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5FFA66E5-4B53-45A7-9DF7-B7D6CFD953BE}" name="Table3" displayName="Table3" ref="A1:F67" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8EB28BA-D8E5-4FE2-A8EF-47E050E5B55E}" name="Table1" displayName="Table1" ref="C76:D106" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="4">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{992671E5-6DFB-4A1F-A905-F95C88723ADE}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{69203563-EF36-4BF7-9E02-D31D4DE4D5EB}" name="Column2" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5FFA66E5-4B53-45A7-9DF7-B7D6CFD953BE}" name="Table3" displayName="Table3" ref="A1:F67" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{352110DB-066B-4BCD-8B0A-2398D2A10B36}" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CCC38AE1-3F9B-477D-847D-B703E89A313D}" name="Column2" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B7E5BBA2-ED8D-4DA0-9E7A-D53DB4B117B6}" name="Column3" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{FABB3088-D2E5-4108-BD00-D377DE77AFAF}" name="Column4" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{634BD29E-DA1C-4CDA-857F-41FE813499EB}" name="Column5" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6AEB675A-CF75-4948-BEBD-2636E3389BCC}" name="Column6" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{352110DB-066B-4BCD-8B0A-2398D2A10B36}" name="Column1" headerRowDxfId="16" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{CCC38AE1-3F9B-477D-847D-B703E89A313D}" name="Column2" headerRowDxfId="14" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B7E5BBA2-ED8D-4DA0-9E7A-D53DB4B117B6}" name="Column3" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{FABB3088-D2E5-4108-BD00-D377DE77AFAF}" name="Column4" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{634BD29E-DA1C-4CDA-857F-41FE813499EB}" name="Column5" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{6AEB675A-CF75-4948-BEBD-2636E3389BCC}" name="Column6" headerRowDxfId="6" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2127,21 +2278,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BF92F4-D95D-4725-A22C-4925729C0F5B}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2176,20 +2327,18 @@
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="34">
         <v>1</v>
@@ -2197,7 +2346,9 @@
       <c r="F3" s="34">
         <v>1</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="52" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
@@ -2232,13 +2383,15 @@
         <v>14</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="E6" s="34">
         <v>3</v>
       </c>
       <c r="F6" s="34"/>
-      <c r="G6" s="50"/>
+      <c r="G6" s="50" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
@@ -2317,7 +2470,7 @@
       <c r="F13" s="38"/>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
@@ -2406,7 +2559,9 @@
       <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="50"/>
+      <c r="G22" s="50" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G23" s="51"/>
@@ -2419,13 +2574,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="34">
         <v>1</v>
@@ -2437,7 +2592,7 @@
       <c r="A26" s="39"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="42"/>
@@ -2449,30 +2604,32 @@
         <v>5</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="34">
         <v>2</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="52"/>
+        <v>36</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
       <c r="F28" s="34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28" s="53"/>
     </row>
@@ -2480,12 +2637,12 @@
       <c r="A29" s="39"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="42"/>
       <c r="F29" s="34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29" s="54"/>
     </row>
@@ -2494,30 +2651,32 @@
         <v>6</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="34">
         <v>1</v>
       </c>
       <c r="F30" s="34"/>
-      <c r="G30" s="50"/>
+      <c r="G30" s="50" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D31" s="37"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G31" s="51"/>
     </row>
@@ -2525,7 +2684,7 @@
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="42"/>
@@ -2535,25 +2694,25 @@
     <row r="33" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="28"/>
       <c r="B33" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
-      <c r="G33" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="E34" s="34">
         <v>4</v>
       </c>
@@ -2566,9 +2725,11 @@
       <c r="A35" s="35"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="37"/>
+        <v>47</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="51"/>
@@ -2577,9 +2738,11 @@
       <c r="A36" s="35"/>
       <c r="B36" s="44"/>
       <c r="C36" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="51"/>
@@ -2588,9 +2751,11 @@
       <c r="A37" s="35"/>
       <c r="B37" s="44"/>
       <c r="C37" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="51"/>
@@ -2599,9 +2764,11 @@
       <c r="A38" s="35"/>
       <c r="B38" s="44"/>
       <c r="C38" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="51"/>
@@ -2610,9 +2777,11 @@
       <c r="A39" s="35"/>
       <c r="B39" s="44"/>
       <c r="C39" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="37"/>
+        <v>51</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="51"/>
@@ -2621,9 +2790,11 @@
       <c r="A40" s="35"/>
       <c r="B40" s="44"/>
       <c r="C40" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="37"/>
+        <v>52</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
       <c r="G40" s="51"/>
@@ -2632,9 +2803,11 @@
       <c r="A41" s="35"/>
       <c r="B41" s="44"/>
       <c r="C41" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="37"/>
+        <v>53</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
       <c r="G41" s="51"/>
@@ -2643,9 +2816,11 @@
       <c r="A42" s="35"/>
       <c r="B42" s="44"/>
       <c r="C42" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="37"/>
+        <v>54</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
       <c r="G42" s="51"/>
@@ -2654,9 +2829,11 @@
       <c r="A43" s="35"/>
       <c r="B43" s="44"/>
       <c r="C43" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
       <c r="G43" s="51"/>
@@ -2665,9 +2842,11 @@
       <c r="A44" s="35"/>
       <c r="B44" s="44"/>
       <c r="C44" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="37"/>
+        <v>56</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="51"/>
@@ -2676,9 +2855,11 @@
       <c r="A45" s="35"/>
       <c r="B45" s="44"/>
       <c r="C45" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="51"/>
@@ -2687,9 +2868,11 @@
       <c r="A46" s="35"/>
       <c r="B46" s="44"/>
       <c r="C46" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
       <c r="G46" s="51"/>
@@ -2698,9 +2881,11 @@
       <c r="A47" s="35"/>
       <c r="B47" s="44"/>
       <c r="C47" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="37"/>
+        <v>59</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="51"/>
@@ -2709,9 +2894,11 @@
       <c r="A48" s="35"/>
       <c r="B48" s="44"/>
       <c r="C48" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="37"/>
+        <v>60</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
       <c r="G48" s="51"/>
@@ -2720,9 +2907,11 @@
       <c r="A49" s="35"/>
       <c r="B49" s="44"/>
       <c r="C49" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="37"/>
+        <v>61</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="51"/>
@@ -2731,9 +2920,11 @@
       <c r="A50" s="35"/>
       <c r="B50" s="44"/>
       <c r="C50" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="37"/>
+        <v>62</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
       <c r="G50" s="51"/>
@@ -2742,9 +2933,11 @@
       <c r="A51" s="35"/>
       <c r="B51" s="44"/>
       <c r="C51" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="37"/>
+        <v>63</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="51"/>
@@ -2753,9 +2946,11 @@
       <c r="A52" s="35"/>
       <c r="B52" s="44"/>
       <c r="C52" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="37"/>
+        <v>64</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
       <c r="G52" s="51"/>
@@ -2764,9 +2959,11 @@
       <c r="A53" s="35"/>
       <c r="B53" s="44"/>
       <c r="C53" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="37"/>
+        <v>65</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="51"/>
@@ -2775,9 +2972,11 @@
       <c r="A54" s="35"/>
       <c r="B54" s="44"/>
       <c r="C54" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="37"/>
+        <v>66</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
       <c r="G54" s="51"/>
@@ -2786,9 +2985,11 @@
       <c r="A55" s="35"/>
       <c r="B55" s="44"/>
       <c r="C55" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="37"/>
+        <v>67</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="51"/>
@@ -2797,9 +2998,11 @@
       <c r="A56" s="35"/>
       <c r="B56" s="44"/>
       <c r="C56" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
       <c r="G56" s="51"/>
@@ -2808,9 +3011,11 @@
       <c r="A57" s="35"/>
       <c r="B57" s="44"/>
       <c r="C57" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="51"/>
@@ -2819,9 +3024,11 @@
       <c r="A58" s="35"/>
       <c r="B58" s="44"/>
       <c r="C58" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
       <c r="G58" s="51"/>
@@ -2830,9 +3037,11 @@
       <c r="A59" s="35"/>
       <c r="B59" s="44"/>
       <c r="C59" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="51"/>
@@ -2841,9 +3050,11 @@
       <c r="A60" s="35"/>
       <c r="B60" s="44"/>
       <c r="C60" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="37"/>
+        <v>73</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
       <c r="G60" s="51"/>
@@ -2852,9 +3063,11 @@
       <c r="A61" s="35"/>
       <c r="B61" s="44"/>
       <c r="C61" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="37"/>
+        <v>74</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="51"/>
@@ -2863,9 +3076,11 @@
       <c r="A62" s="35"/>
       <c r="B62" s="44"/>
       <c r="C62" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="37"/>
+        <v>75</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
       <c r="G62" s="51"/>
@@ -2874,9 +3089,11 @@
       <c r="A63" s="35"/>
       <c r="B63" s="44"/>
       <c r="C63" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="37"/>
+        <v>76</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
       <c r="G63" s="51"/>
@@ -2885,9 +3102,11 @@
       <c r="A64" s="35"/>
       <c r="B64" s="44"/>
       <c r="C64" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="37"/>
+        <v>77</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="51"/>
@@ -2896,9 +3115,11 @@
       <c r="A65" s="35"/>
       <c r="B65" s="44"/>
       <c r="C65" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="37"/>
+        <v>78</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
       <c r="G65" s="51"/>
@@ -2907,9 +3128,11 @@
       <c r="A66" s="35"/>
       <c r="B66" s="44"/>
       <c r="C66" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="37"/>
+        <v>79</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
       <c r="G66" s="51"/>
@@ -2918,9 +3141,11 @@
       <c r="A67" s="35"/>
       <c r="B67" s="44"/>
       <c r="C67" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="37"/>
+        <v>80</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
       <c r="G67" s="51"/>
@@ -2929,9 +3154,11 @@
       <c r="A68" s="35"/>
       <c r="B68" s="44"/>
       <c r="C68" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D68" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="51"/>
@@ -2940,9 +3167,11 @@
       <c r="A69" s="35"/>
       <c r="B69" s="44"/>
       <c r="C69" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="37"/>
+        <v>81</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="51"/>
@@ -2951,9 +3180,11 @@
       <c r="A70" s="35"/>
       <c r="B70" s="44"/>
       <c r="C70" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="37"/>
+        <v>82</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38"/>
       <c r="G70" s="51"/>
@@ -2962,9 +3193,11 @@
       <c r="A71" s="35"/>
       <c r="B71" s="44"/>
       <c r="C71" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38"/>
       <c r="G71" s="51"/>
@@ -2973,9 +3206,11 @@
       <c r="A72" s="35"/>
       <c r="B72" s="44"/>
       <c r="C72" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="37"/>
+        <v>85</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38"/>
       <c r="G72" s="51"/>
@@ -2988,8 +3223,290 @@
       <c r="E73" s="47"/>
       <c r="F73" s="47"/>
       <c r="G73" s="7" t="s">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E75" s="60"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="60"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="60"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="60"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C79" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="60"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="60"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="60"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="60"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="60"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="60"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="60"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="60"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="60"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="60"/>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C89" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="60"/>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C90" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="60"/>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="60"/>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C92" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="60"/>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="60"/>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C94" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="60"/>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C95" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="60"/>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C96" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="60"/>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C97" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="60"/>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C98" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="60"/>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C99" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="60"/>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="60"/>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="60"/>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C102" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="60"/>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C103" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="60"/>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C104" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="60"/>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C105" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="60"/>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C106" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3001,8 +3518,9 @@
     <mergeCell ref="G30:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3011,13 +3529,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD274CB-3E83-45BB-9635-B48322F925B6}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
@@ -3050,11 +3568,11 @@
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3069,7 +3587,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="15" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E3" s="21">
         <v>3</v>
@@ -3078,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -3185,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -3195,7 +3713,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -3254,14 +3772,14 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E18" s="21">
         <v>2</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="52" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -3416,7 +3934,7 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="15" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E32" s="21">
         <v>2</v>
@@ -3425,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -3514,14 +4032,14 @@
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="21">
         <v>2</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="52" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -3599,14 +4117,14 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="21">
         <v>2</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="50" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -3640,7 +4158,7 @@
       <c r="D50" s="18"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G50" s="55"/>
     </row>
@@ -3649,13 +4167,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="34">
         <v>2</v>
@@ -3664,14 +4182,14 @@
         <v>1</v>
       </c>
       <c r="G51" s="57" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="38"/>
@@ -3682,7 +4200,7 @@
       <c r="A53" s="39"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="42"/>
@@ -3694,27 +4212,27 @@
         <v>8</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E54" s="21">
         <v>4</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="50" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="22"/>
@@ -3725,7 +4243,7 @@
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="22"/>
@@ -3736,7 +4254,7 @@
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="22"/>
@@ -3747,7 +4265,7 @@
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="22"/>
@@ -3758,7 +4276,7 @@
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="22"/>
@@ -3769,7 +4287,7 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="22"/>
@@ -3780,7 +4298,7 @@
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="22"/>
@@ -3791,7 +4309,7 @@
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="22"/>
@@ -3802,7 +4320,7 @@
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="22"/>
@@ -3813,7 +4331,7 @@
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="22"/>
@@ -3824,7 +4342,7 @@
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="22"/>
@@ -3848,7 +4366,7 @@
       <c r="E67" s="25"/>
       <c r="F67" s="22"/>
       <c r="G67" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3879,17 +4397,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="feb9f2e5-9aa4-4afe-b066-fc8eac355301" xsi:nil="true"/>
-    <MigrationWizId xmlns="feb9f2e5-9aa4-4afe-b066-fc8eac355301" xsi:nil="true"/>
-    <MigrationWizIdPermissions xmlns="feb9f2e5-9aa4-4afe-b066-fc8eac355301" xsi:nil="true"/>
-    <MigrationWizIdVersion xmlns="feb9f2e5-9aa4-4afe-b066-fc8eac355301" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100842507ADD96D4E40B7E4136C639C5F8F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="036eba5c83b8aaa523ea91dad332d953">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="feb9f2e5-9aa4-4afe-b066-fc8eac355301" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e573862b046b12c6e71b85f3d65eba7" ns3:_="">
     <xsd:import namespace="feb9f2e5-9aa4-4afe-b066-fc8eac355301"/>
@@ -4095,6 +4602,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="feb9f2e5-9aa4-4afe-b066-fc8eac355301" xsi:nil="true"/>
+    <MigrationWizId xmlns="feb9f2e5-9aa4-4afe-b066-fc8eac355301" xsi:nil="true"/>
+    <MigrationWizIdPermissions xmlns="feb9f2e5-9aa4-4afe-b066-fc8eac355301" xsi:nil="true"/>
+    <MigrationWizIdVersion xmlns="feb9f2e5-9aa4-4afe-b066-fc8eac355301" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD300AF-B45B-4A69-B510-289225CFE786}">
   <ds:schemaRefs>
@@ -4104,22 +4622,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97D556A-F800-4929-B9A2-F7C47C6E0FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="feb9f2e5-9aa4-4afe-b066-fc8eac355301"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55EF7553-E10F-4330-A184-E5E2E8A9489C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4135,4 +4637,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97D556A-F800-4929-B9A2-F7C47C6E0FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="feb9f2e5-9aa4-4afe-b066-fc8eac355301"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>